--- a/Pengujian/wn_stratified_result.xlsx
+++ b/Pengujian/wn_stratified_result.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\Pengujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Buku\Thesis\Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wn_stratified_result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Data: West Nile</t>
   </si>
@@ -104,12 +105,24 @@
   <si>
     <t>Average Result</t>
   </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logistic Regression</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +253,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,7 +629,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -609,6 +637,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -933,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,7 +2587,7 @@
         <v>0.91300487245132056</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" ref="C65:I65" si="11">AVERAGE(C60:C64)</f>
+        <f t="shared" ref="C65:J66" si="11">AVERAGE(C60:C64)</f>
         <v>0.88683581861939076</v>
       </c>
       <c r="D65" s="2">
@@ -2578,7 +2614,10 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2">
+        <f t="shared" si="11"/>
+        <v>0.51153097729192021</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2608,19 +2647,987 @@
         <f t="shared" si="12"/>
         <v>1.4361013995297475E-2</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35999999999999971</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="11"/>
+        <v>0.57193289328610253</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A58:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.91436771718847143</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.92202571013891688</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.94864883544128786</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.209521397321009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.90863674061787203</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.92202571013891699</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.94864883544128797</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.20788272966125501</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.90886436470322707</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.88628977657413599</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.94719250733468707</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.37431984259172302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.90819905213270102</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.88628977657413599</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.94719250733468696</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.37179677969878899</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.90984174335702139</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.86865906097986989</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.94828580259000295</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.51760220688279923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.91149134426002898</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.86865906097987</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.94828580259000295</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.51472367047480505</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.91240063341250899</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.88056158805564899</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.94789390340459201</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.66706500129023161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.91292274629566705</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.88056158805564899</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.94789390340459201</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.67323304224922498</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.91954990359537359</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.87664295734838205</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.94764938985201286</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.78914643837383835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.91909384903933899</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.87664295734838205</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.94764938985201297</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.78846613434831503</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.91300487245132056</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.88683581861939076</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.94793408772451659</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:M8" si="0">AVERAGE(L2:L6)</f>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51153097729192021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0.91206874646912151</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:E8" si="1">AVERAGE(C3:C7)</f>
+        <v>0.88683581861939087</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.94793408772451659</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.8002387648528591E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.8505575027078211E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5.0342363432589955E-4</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999971</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57193289328610253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>3.928561404820256E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:D9" si="2">_xlfn.STDEV.P(C3:C7)</f>
+        <v>1.8505575027078228E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.0342363432595127E-4</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.92010228764945701</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.92202571013891699</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.94864883544128797</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.20814004292953001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.91058226134055498</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.88628977657413599</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.94719250733468696</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.37185102808013498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.90863417580743999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.86865906097987</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.94828580259000295</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.51271354802007996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.91173509783961004</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.88056158805564899</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.94789390340459201</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.66717445106502704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.91985430254881295</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.87664295734838205</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.94764938985201297</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.80178521159800997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <f>AVERAGE(B11:B15)</f>
+        <v>0.91418162503717482</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:E16" si="3">AVERAGE(C11:C15)</f>
+        <v>0.88683581861939087</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.94793408772451659</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <f>_xlfn.STDEV.P(B11:B15)</f>
+        <v>4.836292448249499E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:D17" si="4">_xlfn.STDEV.P(C11:C15)</f>
+        <v>1.8505575027078228E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0342363432595127E-4</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.91626529131246104</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.92202571013891699</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.94864883544128797</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.21064060007506699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.90724441435341896</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.88628977657413599</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.94719250733468696</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.37455574974195299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.90895566740765399</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.86865906097987</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.94828580259000295</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.53185516268649602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.91316197262752996</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.88056158805564899</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.94789390340459201</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.66355483778267799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.91909130865651301</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.87664295734838205</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.94764938985201297</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.78646774127334096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <f>AVERAGE(B19:B23)</f>
+        <v>0.91294373087151537</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:E24" si="5">AVERAGE(C19:C23)</f>
+        <v>0.88683581861939087</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94793408772451659</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="5"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <f>_xlfn.STDEV.P(B19:B23)</f>
+        <v>4.4104413569336252E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:D25" si="6">_xlfn.STDEV.P(C19:C23)</f>
+        <v>1.8505575027078228E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="6"/>
+        <v>5.0342363432595127E-4</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.91245559471974502</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.92202571013891699</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.94864883544128797</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.210850629281223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.90867072895508905</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.88628977657413599</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.94719250733468696</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.37500439851740602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.90990201423362704</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.86865906097987</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.94828580259000295</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.51352910645585004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.91316197262752996</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.88056158805564899</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.94789390340459201</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.66550374753682995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.92042391912792099</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.87664295734838205</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.94764938985201297</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.78189914786056003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4">
+        <f>AVERAGE(B27:B31)</f>
+        <v>0.91292284593278228</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:E32" si="7">AVERAGE(C27:C31)</f>
+        <v>0.88683581861939087</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="7"/>
+        <v>0.94793408772451659</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="7"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4">
+        <f>_xlfn.STDEV.P(B27:B31)</f>
+        <v>4.0926159677561313E-3</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:D33" si="8">_xlfn.STDEV.P(C27:C31)</f>
+        <v>1.8505575027078228E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="8"/>
+        <v>5.0342363432595127E-4</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.91437867164282205</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.92202571013891699</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.94864883544128797</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.21009298465796999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.909625366734371</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.88628977657413599</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.94719250733468696</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.37839125692033199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.91022551507635696</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.86865906097987</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.94828580259000295</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.51518954677676498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.91102137767220803</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.88056158805564899</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.94789390340459201</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.66585892781739797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.91928613860428199</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.87664295734838205</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.94764938985201297</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.78711395678896601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4">
+        <f>AVERAGE(B35:B39)</f>
+        <v>0.91290741394600805</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:E40" si="9">AVERAGE(C35:C39)</f>
+        <v>0.88683581861939087</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="9"/>
+        <v>0.94793408772451659</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="9"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="4">
+        <f>_xlfn.STDEV.P(B35:B39)</f>
+        <v>3.5881548391630534E-3</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" ref="C41:D41" si="10">_xlfn.STDEV.P(C35:C39)</f>
+        <v>1.8505575027078228E-2</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="10"/>
+        <v>5.0342363432595127E-4</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>